--- a/Income/TXN_inc.xlsx
+++ b/Income/TXN_inc.xlsx
@@ -2110,16 +2110,16 @@
         <v>0.6377</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.6312</v>
+        <v>0.6349</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.6328</v>
+        <v>0.6365</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.6333</v>
+        <v>0.6368</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.6337</v>
+        <v>0.6371</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.6423</v>
@@ -2491,16 +2491,16 @@
         <v>0.385</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.3605</v>
+        <v>0.3592</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3674</v>
+        <v>0.3661</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3514</v>
+        <v>0.3502</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3478</v>
+        <v>0.3466</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.3481</v>
